--- a/DATABASE VER 1.0.0.xlsx
+++ b/DATABASE VER 1.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Gomez\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tecnicas de programacion\Facturacion_Veterinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE04E52-15B1-4DE1-B132-398B292311F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22727F81-6A14-4FA9-86B1-64B7B4F0BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F34F5C5-2797-47A4-814F-9BE12145F369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F34F5C5-2797-47A4-814F-9BE12145F369}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -333,14 +341,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -350,6 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2355,24 +2364,24 @@
   <dimension ref="A2:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="19.36328125" customWidth="1"/>
-    <col min="12" max="12" width="20.08984375" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2401,7 +2410,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2430,7 +2439,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I5" s="11"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2441,7 +2450,8 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="16"/>
       <c r="I6" s="11"/>
       <c r="J6" s="6" t="s">
         <v>32</v>
@@ -2454,7 +2464,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2470,7 +2480,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2499,7 +2509,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,7 +2538,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I10" s="11"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2541,7 +2551,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I11" s="11"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2554,7 +2564,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2574,7 +2584,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2603,7 +2613,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -2629,7 +2639,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I15" s="11"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2646,7 +2656,7 @@
       </c>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2666,7 +2676,7 @@
       </c>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2691,7 +2701,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -2716,7 +2726,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I19" s="11"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2727,7 +2737,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I20" s="13"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
